--- a/MarketingLog.xlsx
+++ b/MarketingLog.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Rasmi Amulya Kode</t>
   </si>
@@ -44,9 +35,6 @@
     <t>Jabil Circuits</t>
   </si>
   <si>
-    <t>Marketing Log</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
@@ -135,6 +123,51 @@
   </si>
   <si>
     <t>Infosys/Tracfone</t>
+  </si>
+  <si>
+    <t>T-Mobile</t>
+  </si>
+  <si>
+    <t>US IT Recruiter</t>
+  </si>
+  <si>
+    <t>Zensar</t>
+  </si>
+  <si>
+    <t>Cambay Consulting</t>
+  </si>
+  <si>
+    <t>HCL America</t>
+  </si>
+  <si>
+    <t>INDU Tech</t>
+  </si>
+  <si>
+    <t>Taylor Corp</t>
+  </si>
+  <si>
+    <t>Okaya</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>Avtech</t>
+  </si>
+  <si>
+    <t>Osair</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>Insigma Inc.</t>
+  </si>
+  <si>
+    <t>Synkriom</t>
+  </si>
+  <si>
+    <t>ASAP Solutions</t>
   </si>
 </sst>
 </file>
@@ -178,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,14 +219,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,298 +502,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="2">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B11" s="2">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>42779</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B13" s="2">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2">
         <v>53</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>42781</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <v>50</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>42782</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>42783</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>42788</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>42786</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>42787</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>42788</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>42790</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>42793</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B31" s="2">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>42795</v>
-      </c>
-      <c r="C17" s="2">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>42795</v>
-      </c>
-      <c r="C18" s="2">
-        <v>58</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>42796</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>42800</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>42800</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2">
-        <v>50</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>42801</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>42802</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2">
-        <v>54</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
